--- a/ArmSOC0814.xlsx
+++ b/ArmSOC0814.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="210">
   <si>
     <t>Qty</t>
   </si>
@@ -638,6 +638,12 @@
   </si>
   <si>
     <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>PCB Manufacturing</t>
   </si>
 </sst>
 </file>
@@ -646,7 +652,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.000\ [$€-C0A]_-;\-* #,##0.000\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000\ [$€-C0A]_-;\-* #,##0.000\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1132,7 +1138,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1151,7 +1157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1173,6 +1179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1220,7 +1227,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000\ [$€-C0A]_-;\-* #,##0.000\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.000\ [$€-C0A]_-;\-* #,##0.000\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1228,9 +1235,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -1244,13 +1248,119 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ArmSOC0814!$P$5:$P$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Components</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PCB Manufacturing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ArmSOC0814!$Q$5:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0000\ [$€-C0A]_-;\-* #,##0000\ [$€-C0A]_-;_-* "-"??\ [$€-C0A]_-;_-@_-</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>103.39509999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>876300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:N49" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:N49" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:N49">
     <filterColumn colId="11"/>
     <filterColumn colId="13"/>
@@ -1259,12 +1369,12 @@
     <tableColumn id="2" name="Value"/>
     <tableColumn id="3" name="Device"/>
     <tableColumn id="4" name="Package"/>
-    <tableColumn id="5" name="Parts" dataDxfId="7"/>
+    <tableColumn id="5" name="Parts" dataDxfId="6"/>
     <tableColumn id="6" name="Description"/>
     <tableColumn id="11" name="MPN"/>
-    <tableColumn id="12" name="OC_FARNELL" dataDxfId="6"/>
-    <tableColumn id="13" name="OC_MOUSER" dataDxfId="5"/>
-    <tableColumn id="15" name="OC_RS" dataDxfId="4"/>
+    <tableColumn id="12" name="OC_FARNELL" dataDxfId="5"/>
+    <tableColumn id="13" name="OC_MOUSER" dataDxfId="4"/>
+    <tableColumn id="15" name="OC_RS" dataDxfId="3"/>
     <tableColumn id="19" name="TOLERANCE"/>
     <tableColumn id="21" name="VOLTAGE"/>
     <tableColumn id="7" name="UNIT PRICE" dataDxfId="2"/>
@@ -1562,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1586,7 +1696,7 @@
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1">
+    <row r="1" spans="1:17" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1631,7 +1741,7 @@
       </c>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1665,7 +1775,7 @@
       </c>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1702,7 +1812,7 @@
       </c>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" ht="103.5" customHeight="1">
+    <row r="4" spans="1:17" ht="103.5" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1742,7 +1852,7 @@
       </c>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1778,8 +1888,15 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q5" s="16">
+        <f>SUM(N2:N47)</f>
+        <v>103.39509999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1815,8 +1932,15 @@
         <v>0.09</v>
       </c>
       <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q6" s="16">
+        <f>N48</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1856,7 +1980,7 @@
       </c>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" ht="30">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1893,7 +2017,7 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1930,7 +2054,7 @@
       </c>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1967,7 +2091,7 @@
       </c>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2000,7 +2124,7 @@
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" ht="60">
+    <row r="12" spans="1:17" ht="30">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2040,7 +2164,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -2080,7 +2204,7 @@
       </c>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15" ht="90">
+    <row r="14" spans="1:17" ht="45">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -2117,7 +2241,7 @@
       </c>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -2157,7 +2281,7 @@
       </c>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -3326,8 +3450,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>